--- a/public/format_datapengguna.xlsx
+++ b/public/format_datapengguna.xlsx
@@ -1,76 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp80\htdocs\lara_bahanujikom\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\bahan ujikom praktek\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC6371E-96EE-4223-B585-D7555FDA2E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3ED6B38-4E0C-4A36-A046-9F2CE0B5DB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
-  <si>
-    <t>KODE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>NO</t>
   </si>
   <si>
-    <t xml:space="preserve">NAMA </t>
+    <t>NAMA</t>
   </si>
   <si>
-    <t xml:space="preserve">KATEGORI </t>
+    <t>EMAIL</t>
   </si>
   <si>
-    <t xml:space="preserve">HARGA SATUAN </t>
+    <t>PASSWORD</t>
   </si>
   <si>
-    <t xml:space="preserve">HARGA JUAL </t>
-  </si>
-  <si>
-    <t>SATUAN</t>
-  </si>
-  <si>
-    <t>TANGGAL PRODUKSI</t>
-  </si>
-  <si>
-    <t>TANGGAL EXPIRED</t>
-  </si>
-  <si>
-    <t>Minuman</t>
-  </si>
-  <si>
-    <t>Teh Botol Sosro</t>
-  </si>
-  <si>
-    <t>botol</t>
-  </si>
-  <si>
-    <t>01/01/2024</t>
-  </si>
-  <si>
-    <t>01/01/2025</t>
-  </si>
-  <si>
-    <t>00001</t>
-  </si>
-  <si>
-    <t>00002</t>
-  </si>
-  <si>
-    <t>Teh Pucuk</t>
+    <t>HAK AKSES</t>
   </si>
 </sst>
 </file>
@@ -78,7 +42,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -158,8 +122,8 @@
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -167,23 +131,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -211,9 +168,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -251,9 +208,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -286,26 +243,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -338,26 +278,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -531,118 +454,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
     <col min="3" max="3" width="23" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>4000</v>
-      </c>
-      <c r="F2">
-        <v>6000</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>3000</v>
-      </c>
-      <c r="F3">
-        <v>4000</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{59F029A2-2FE0-4EE9-850C-4DC093F32336}">
-      <formula1>"Minuman,Makanan"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.26" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
